--- a/Documentation/Pokemon_learnset_rebalance/130_Gyarados.xlsx
+++ b/Documentation/Pokemon_learnset_rebalance/130_Gyarados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan ten Napel\Desktop\Overig\Pokémon ROM hacking\Changelog\Pokémon_learnset_rebalance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AF07A6-7871-48C8-8532-8EA0BD8BAB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F336A378-8921-41D4-A04E-21F3F8DCEA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8810" yWindow="1960" windowWidth="9740" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7510" yWindow="2250" windowWidth="9740" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="124">
   <si>
     <t>Level</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Water Gun</t>
   </si>
 </sst>
 </file>
@@ -714,7 +717,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -777,10 +780,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -800,10 +803,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -820,10 +823,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -840,10 +843,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -857,10 +860,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -877,10 +880,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -897,10 +900,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -911,10 +914,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -925,10 +928,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -939,10 +942,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -952,6 +955,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
       <c r="D14" t="s">
         <v>36</v>
       </c>
